--- a/compare_table.xlsx
+++ b/compare_table.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amir\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amir\PycharmProjects\OOP-Ex3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D4508B-2733-4DDF-AE55-70DAC1DA93D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AEFF0B-F99A-437A-87B2-C229D12124D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="264" yWindow="660" windowWidth="21600" windowHeight="11328" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
-    <sheet name="currectness" sheetId="2" r:id="rId2"/>
+    <sheet name="general" sheetId="1" r:id="rId1"/>
+    <sheet name="correctness" sheetId="2" r:id="rId2"/>
     <sheet name="performance" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="115">
   <si>
     <t>graph name file</t>
   </si>
@@ -122,9 +122,6 @@
     <t>dist 13.379, [0, 1, 2, 6, 7, 8, 7, 6, 5, 4], 93 ms</t>
   </si>
   <si>
-    <t>currectness java</t>
-  </si>
-  <si>
     <t>performance java</t>
   </si>
   <si>
@@ -218,9 +215,6 @@
     <t>62 ms</t>
   </si>
   <si>
-    <t>currectness python</t>
-  </si>
-  <si>
     <t>performance python</t>
   </si>
   <si>
@@ -309,6 +303,84 @@
   </si>
   <si>
     <t>dist 13.379, [0, 1, 2, 6, 7, 8, 7, 6, 5, 4], 9 ms</t>
+  </si>
+  <si>
+    <t>correctness java</t>
+  </si>
+  <si>
+    <t>correctness python</t>
+  </si>
+  <si>
+    <t>18 ms</t>
+  </si>
+  <si>
+    <t>210ms</t>
+  </si>
+  <si>
+    <t>450 ms</t>
+  </si>
+  <si>
+    <t>92 ms</t>
+  </si>
+  <si>
+    <t>647 ms</t>
+  </si>
+  <si>
+    <t>178 ms</t>
+  </si>
+  <si>
+    <t>1959 sec</t>
+  </si>
+  <si>
+    <t>806 ms</t>
+  </si>
+  <si>
+    <t>16 sec</t>
+  </si>
+  <si>
+    <t>1sec</t>
+  </si>
+  <si>
+    <t>14 sec</t>
+  </si>
+  <si>
+    <t>19 ms</t>
+  </si>
+  <si>
+    <t>127 ms</t>
+  </si>
+  <si>
+    <t>7 sec</t>
+  </si>
+  <si>
+    <t>timeout(apx 200 hours)</t>
+  </si>
+  <si>
+    <t>144 sec</t>
+  </si>
+  <si>
+    <t>11 sec</t>
+  </si>
+  <si>
+    <t>6 sec</t>
+  </si>
+  <si>
+    <t>26 sec</t>
+  </si>
+  <si>
+    <t>248 sec</t>
+  </si>
+  <si>
+    <t>78 sec</t>
+  </si>
+  <si>
+    <t>95 sec</t>
+  </si>
+  <si>
+    <t>1998 sec</t>
+  </si>
+  <si>
+    <t>TSP [0,2,4,6,8] (distance)</t>
   </si>
 </sst>
 </file>
@@ -353,11 +425,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,7 +483,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Currectness Java</a:t>
+              <a:t>Correctness Java</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -451,7 +524,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22246983369335471"/>
+          <c:y val="0.11396678485364768"/>
+          <c:w val="0.7022675539451374"/>
+          <c:h val="0.75922353455818026"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -460,7 +543,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>currectness!$F$1</c:f>
+              <c:f>correctness!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -483,7 +566,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>currectness!$G$2:$G$7</c:f>
+              <c:f>correctness!$G$2:$G$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -509,7 +592,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>currectness!$F$2:$F$7</c:f>
+              <c:f>correctness!$F$2:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -546,7 +629,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>currectness!$E$1</c:f>
+              <c:f>correctness!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -569,7 +652,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>currectness!$G$2:$G$7</c:f>
+              <c:f>correctness!$G$2:$G$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -595,7 +678,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>currectness!$E$2:$E$7</c:f>
+              <c:f>correctness!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -632,7 +715,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>currectness!$D$1</c:f>
+              <c:f>correctness!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -655,7 +738,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>currectness!$G$2:$G$7</c:f>
+              <c:f>correctness!$G$2:$G$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -681,7 +764,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>currectness!$D$2:$D$7</c:f>
+              <c:f>correctness!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -718,7 +801,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>currectness!$C$1</c:f>
+              <c:f>correctness!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -741,7 +824,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>currectness!$G$2:$G$7</c:f>
+              <c:f>correctness!$G$2:$G$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -767,7 +850,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>currectness!$C$2:$C$7</c:f>
+              <c:f>correctness!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -804,7 +887,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>currectness!$B$1</c:f>
+              <c:f>correctness!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -827,7 +910,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>currectness!$G$2:$G$7</c:f>
+              <c:f>correctness!$G$2:$G$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -853,7 +936,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>currectness!$B$2:$B$7</c:f>
+              <c:f>correctness!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -885,94 +968,7 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>currectness!$A$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TSP [0,2,4,6,8]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>currectness!$G$2:$G$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>java - G1.json </c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>java - G2.json</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>java - G3.json</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>python - G1.json</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>python - G2.json</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>python - G3.json</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>currectness!$A$2:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-C644-4214-8C6E-D91F402F655D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1299,6 +1295,454 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="he-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>correctness!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TSP [0,2,4,6,8] (distance)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>correctness!$G$2:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>java - G1.json </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>java - G2.json</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>java - G3.json</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>python - G1.json</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>python - G2.json</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>python - G3.json</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>correctness!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>13.379</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.379</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.379</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.379</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5805-4B63-8751-D65B721FC28F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="545580080"/>
+        <c:axId val="545580496"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="545580080"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>graph file (scenario)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="he-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="545580496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="545580496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>distance of path</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="he-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="545580080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="he-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="he-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -1319,13 +1763,2075 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Performance</a:t>
+              <a:t>1M</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Java VS Python</a:t>
+              <a:t> nodes graph java VS python</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="he-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>performance!$G$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>python - 1M nodes graph </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(performance!$D$1,performance!$A$1:$B$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>isConnected</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TSP 20 nodes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>shortestPath</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(performance!$D$11,performance!$A$11:$B$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8EBE-4852-BB9C-E24ECBF4E619}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>performance!$G$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>java - 1M nodes graph </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(performance!$D$1,performance!$A$1:$B$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>isConnected</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TSP 20 nodes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>shortestPath</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(performance!$D$6,performance!$A$6:$B$6)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>577</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8EBE-4852-BB9C-E24ECBF4E619}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2134142240"/>
+        <c:axId val="2134140576"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2134142240"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>functions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="he-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2134140576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2134140576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>time sec</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="he-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2134142240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="he-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="he-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Small graphs java VS python</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="he-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>performance!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>java - 100performance.json</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(performance!$D$1:$F$1,performance!$A$1:$B$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>isConnected</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>save</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>load</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TSP 20 nodes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>shortestPath</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(performance!$D$2:$F$2,performance!$A$2:$B$2)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-AA5A-4441-BDB4-6C6544A11AEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>performance!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>java - 1Kperformance.json</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(performance!$D$1:$F$1,performance!$A$1:$B$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>isConnected</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>save</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>load</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TSP 20 nodes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>shortestPath</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(performance!$D$3:$F$3,performance!$A$3:$B$3)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.2999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-AA5A-4441-BDB4-6C6544A11AEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>performance!$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>python - 100performance.json</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(performance!$D$1:$F$1,performance!$A$1:$B$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>isConnected</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>save</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>load</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TSP 20 nodes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>shortestPath</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(performance!$D$7:$F$7,performance!$A$7:$B$7)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-AA5A-4441-BDB4-6C6544A11AEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>performance!$G$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>python - 1Kperformance.json</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(performance!$D$1:$F$1,performance!$A$1:$B$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>isConnected</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>save</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>load</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TSP 20 nodes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>shortestPath</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(performance!$D$8:$F$8,performance!$A$8:$B$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.127</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-AA5A-4441-BDB4-6C6544A11AEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2134142240"/>
+        <c:axId val="2134140576"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2134142240"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>functions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="he-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2134140576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2134140576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>time sec</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="he-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2134142240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="he-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="he-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>10K &amp; 100K nodes graphs java VS python</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="he-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>performance!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>java - 10Kperformance.json</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(performance!$D$1:$F$1,performance!$A$1:$B$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>isConnected</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>save</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>load</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TSP 20 nodes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>shortestPath</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(performance!$D$4:$F$4,performance!$A$4:$B$4)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.121</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53200000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E7C9-42D2-B24C-E3CA018A3A10}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>performance!$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>java - 100Kperformance.json</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(performance!$D$1:$F$1,performance!$A$1:$B$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>isConnected</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>save</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>load</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TSP 20 nodes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>shortestPath</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(performance!$D$5:$F$5,performance!$A$5:$B$5)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E7C9-42D2-B24C-E3CA018A3A10}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>performance!$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>python - 100performance.json</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(performance!$D$1:$F$1,performance!$A$1:$B$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>isConnected</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>save</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>load</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TSP 20 nodes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>shortestPath</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(performance!$D$9:$F$9,performance!$A$9:$B$9)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.17799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80600000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-E7C9-42D2-B24C-E3CA018A3A10}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>performance!$G$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>python - 100Kperformance.json</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(performance!$D$1:$F$1,performance!$A$1:$B$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>isConnected</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>save</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>load</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TSP 20 nodes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>shortestPath</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(performance!$D$10:$F$10,performance!$A$10:$B$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-E7C9-42D2-B24C-E3CA018A3A10}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2134142240"/>
+        <c:axId val="2134140576"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2134142240"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>functions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="he-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2134140576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2134140576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>time sec</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="he-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2134142240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="he-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="he-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> center java VS python</a:t>
+            </a:r>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1369,11 +3875,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>performance!$F$1</c:f>
+              <c:f>performance!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>load</c:v>
+                  <c:v>center</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1430,21 +3936,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>performance!$F$2:$F$11</c:f>
+              <c:f>performance!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.03</c:v>
+                  <c:v>0.25900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.121</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1959</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1452,473 +3964,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F7B3-4AB2-8E85-B65FB6B49376}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>performance!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>save</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>performance!$G$2:$G$11</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>java - 100performance.json</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>java - 1Kperformance.json</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>java - 10Kperformance.json</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>java - 100Kperformance.json</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>java - 1M nodes graph </c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>python - 100performance.json</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>python - 1Kperformance.json</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>python - 10Kperformance.json</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>python - 100Kperformance.json</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>python - 1M nodes graph </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>performance!$E$2:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>8.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.3999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F7B3-4AB2-8E85-B65FB6B49376}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>performance!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>isConnected</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>performance!$G$2:$G$11</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>java - 100performance.json</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>java - 1Kperformance.json</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>java - 10Kperformance.json</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>java - 100Kperformance.json</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>java - 1M nodes graph </c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>python - 100performance.json</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>python - 1Kperformance.json</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>python - 10Kperformance.json</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>python - 100Kperformance.json</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>python - 1M nodes graph </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>performance!$D$2:$D$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.2999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.2999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>23</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F7B3-4AB2-8E85-B65FB6B49376}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>performance!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>center</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>performance!$G$2:$G$11</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>java - 100performance.json</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>java - 1Kperformance.json</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>java - 10Kperformance.json</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>java - 100Kperformance.json</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>java - 1M nodes graph </c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>python - 100performance.json</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>python - 1Kperformance.json</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>python - 10Kperformance.json</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>python - 100Kperformance.json</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>python - 1M nodes graph </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>performance!$C$2:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.25900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>337</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-F7B3-4AB2-8E85-B65FB6B49376}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>performance!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>shortestPath</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>performance!$G$2:$G$11</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>java - 100performance.json</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>java - 1Kperformance.json</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>java - 10Kperformance.json</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>java - 100Kperformance.json</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>java - 1M nodes graph </c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>python - 100performance.json</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>python - 1Kperformance.json</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>python - 10Kperformance.json</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>python - 100Kperformance.json</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>python - 1M nodes graph </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>performance!$B$2:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.107</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.53200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>28</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-F7B3-4AB2-8E85-B65FB6B49376}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>performance!$A$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TSP 20 nodes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>performance!$G$2:$G$11</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>java - 100performance.json</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>java - 1Kperformance.json</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>java - 10Kperformance.json</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>java - 100Kperformance.json</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>java - 1M nodes graph </c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>python - 100performance.json</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>python - 1Kperformance.json</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>python - 10Kperformance.json</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>python - 100Kperformance.json</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>python - 1M nodes graph </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>performance!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.2E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.2E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>577</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-F7B3-4AB2-8E85-B65FB6B49376}"/>
+              <c16:uniqueId val="{00000002-ED8B-4DFA-8555-F3707B29D760}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1931,77 +3977,18 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1765210063"/>
-        <c:axId val="1765208399"/>
+        <c:axId val="708917312"/>
+        <c:axId val="708905248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1765210063"/>
+        <c:axId val="708917312"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>file</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> name (scenario)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2037,7 +4024,7 @@
             <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1765208399"/>
+        <c:crossAx val="708905248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2045,7 +4032,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1765208399"/>
+        <c:axId val="708905248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2065,63 +4052,8 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>time(sec)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="he-IL"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2151,7 +4083,7 @@
             <a:endParaRPr lang="he-IL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1765210063"/>
+        <c:crossAx val="708917312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2318,6 +4250,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2835,6 +4927,2031 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3355,15 +7472,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>662940</xdr:colOff>
+      <xdr:colOff>739140</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2042160</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:colOff>937260</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3388,6 +7505,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1443990</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>826770</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88A37BDA-80E7-4F34-85C8-924696A40EED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3395,23 +7548,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1954530</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1760220</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>453390</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36C6A367-A391-4706-A7DD-A5A87CD32FDB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61874E97-436B-4D75-8BD4-4F20E2E95830}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3424,6 +7577,118 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1767840</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52AF9FC2-6CBD-4666-94E9-482ADB82A65F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>861060</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{555740DA-890E-433B-8D8B-9ECD77A693D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1268730</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>217170</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{258F30F4-C103-46A5-9095-4762F3638B92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3698,7 +7963,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3714,7 +7979,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3757,7 +8022,7 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -3817,7 +8082,7 @@
     </row>
     <row r="7" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -3851,22 +8116,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s">
         <v>5</v>
@@ -3874,22 +8139,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s">
         <v>6</v>
@@ -3897,22 +8162,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s">
         <v>7</v>
@@ -3920,7 +8185,7 @@
     </row>
     <row r="12" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -3931,7 +8196,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -3957,119 +8222,119 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15">
         <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" t="s">
         <v>38</v>
       </c>
-      <c r="E17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" t="s">
-        <v>39</v>
-      </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
         <v>44</v>
       </c>
-      <c r="F18" t="s">
-        <v>45</v>
-      </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -4080,7 +8345,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -4102,28 +8367,118 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" t="s">
+        <v>91</v>
+      </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" t="s">
+        <v>58</v>
+      </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" t="s">
+        <v>95</v>
+      </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" t="s">
+        <v>108</v>
+      </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" t="s">
+        <v>111</v>
+      </c>
       <c r="G25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -4142,8 +8497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C2F381-436E-4F56-98C9-915728254132}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4159,7 +8514,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
@@ -4182,7 +8537,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>93</v>
+        <v>13.379</v>
       </c>
       <c r="B2">
         <v>13</v>
@@ -4200,12 +8555,12 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>87</v>
+        <v>13.379</v>
       </c>
       <c r="B3">
         <v>14</v>
@@ -4223,12 +8578,12 @@
         <v>52</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>99</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="B4">
         <v>28</v>
@@ -4246,12 +8601,12 @@
         <v>78</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>9</v>
+        <v>13.379</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -4269,12 +8624,12 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3</v>
+        <v>13.379</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -4292,12 +8647,12 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -4315,7 +8670,7 @@
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -4328,8 +8683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9468B8-90C7-42DD-8C54-BDA60017CD77}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4347,7 +8702,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -4394,7 +8749,7 @@
         <v>0.03</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -4422,7 +8777,7 @@
         <v>3.1E-2</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -4448,7 +8803,7 @@
         <v>0.121</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -4468,7 +8823,7 @@
         <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -4481,33 +8836,137 @@
       <c r="D6">
         <v>23</v>
       </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
       <c r="G6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>92/1000</f>
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="B7">
+        <f>4/1000</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C7">
+        <f>450/1000</f>
+        <v>0.45</v>
+      </c>
+      <c r="D7">
+        <f>1/1000</f>
+        <v>1E-3</v>
+      </c>
+      <c r="E7">
+        <f>210/1000</f>
+        <v>0.21</v>
+      </c>
+      <c r="F7">
+        <f>18/1000</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
       <c r="G7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <f>62/1000</f>
+        <v>6.2E-2</v>
+      </c>
+      <c r="C8">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <f>19/1000</f>
+        <v>1.9E-2</v>
+      </c>
+      <c r="E8">
+        <f>127/1000</f>
+        <v>0.127</v>
+      </c>
+      <c r="F8">
+        <f>62/1000</f>
+        <v>6.2E-2</v>
+      </c>
       <c r="G8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <f>806/1000</f>
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="C9">
+        <v>1959</v>
+      </c>
+      <c r="D9">
+        <f>178/1000</f>
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="E9">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <f>647/1000</f>
+        <v>0.64700000000000002</v>
+      </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>144</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <f>11</f>
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <f>6</f>
+        <v>6</v>
+      </c>
       <c r="G10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1998</v>
+      </c>
+      <c r="B11">
+        <v>95</v>
+      </c>
+      <c r="D11">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <f>248</f>
+        <v>248</v>
+      </c>
+      <c r="F11">
+        <f>78</f>
+        <v>78</v>
+      </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/compare_table.xlsx
+++ b/compare_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amir\PycharmProjects\OOP-Ex3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AEFF0B-F99A-437A-87B2-C229D12124D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD545F84-58B0-48A9-B920-004581C61215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,10 +427,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1806,7 +1806,7 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="stacked"/>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1832,19 +1832,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -1912,19 +1900,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -1976,7 +1952,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="2134142240"/>
         <c:axId val="2134140576"/>
@@ -2355,7 +2330,7 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="stacked"/>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2381,19 +2356,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -2473,19 +2436,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -2565,19 +2516,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -2657,19 +2596,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -2733,7 +2660,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="2134142240"/>
         <c:axId val="2134140576"/>
@@ -3112,7 +3038,7 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="stacked"/>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3138,19 +3064,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -3230,19 +3144,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -3303,11 +3205,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>performance!$G$7</c:f>
+              <c:f>performance!$G$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>python - 100performance.json</c:v>
+                  <c:v>python - 10Kperformance.json</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3322,19 +3224,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -3414,19 +3304,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -3490,7 +3368,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="2134142240"/>
         <c:axId val="2134140576"/>
@@ -7978,15 +7855,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -8081,15 +7958,15 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -8184,15 +8061,15 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -8333,15 +8210,15 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -8683,8 +8560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9468B8-90C7-42DD-8C54-BDA60017CD77}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8836,8 +8713,8 @@
       <c r="D6">
         <v>23</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
       <c r="G6" t="s">
         <v>71</v>
       </c>
